--- a/medicine/Mort/Cimetière_Saint-Germain/Cimetière_Saint-Germain.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Germain/Cimetière_Saint-Germain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Germain</t>
+          <t>Cimetière_Saint-Germain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Germain également appelé cimetière Saint-Pierre, est un ancien cimetière parisien attesté dès le milieu du XIIIe siècle. Il est utilisé par les protestants au XVIe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Germain</t>
+          <t>Cimetière_Saint-Germain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Emplacement et dimensions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé au coin nord-ouest de l'ancienne rue Taranne et de la rue des Saints-Pères, le long de la chapelle des Saint-Pères (à l'emplacement de l'actuelle cathédrale Saint-Vladimir-le-Grand), son emplacement correspond aujourd'hui au square Taras-Chevtchenko au no 186 boulevard Saint-Germain[1]. De forme rectangulaire, il mesurait 27 toises sur 8 (soit 54 mètres sur 16).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé au coin nord-ouest de l'ancienne rue Taranne et de la rue des Saints-Pères, le long de la chapelle des Saint-Pères (à l'emplacement de l'actuelle cathédrale Saint-Vladimir-le-Grand), son emplacement correspond aujourd'hui au square Taras-Chevtchenko au no 186 boulevard Saint-Germain. De forme rectangulaire, il mesurait 27 toises sur 8 (soit 54 mètres sur 16).
 	Emplacement du cimetière Saint-Germain
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Germain</t>
+          <t>Cimetière_Saint-Germain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Propriété de la paroisse Saint-Sulpice, le cimetière Saint-Germain est attesté depuis 1259. Jusqu'en 1544, il est affecté à l'inhumation des pestiférés et des lépreux.
 Il est utilisé par les protestants au moins à partir 1576. L'article 45 de l'Édit de Nantes, en 1598, le signale comme l'un des deux cimetières parisiens accordés aux protestants avec le cimetière de la Trinité. En 1604, à la demande de la fabrique de l'église Saint-Sulpice, les protestants quittent ce cimetière et ouvrent le cimetière des Saints-Pères qui était situé un peu plus loin.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Germain</t>
+          <t>Cimetière_Saint-Germain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baptiste Androuet du Cerceau
 Claude Arnauld, un conseiller, notaire et secrétaire du roi Henri IV, trésorier général de la généralité de Paris mort en 1603.
